--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Informatica generala\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D234557-FA09-4074-AF1B-FC3D786487AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86CDFA9-A1C1-435C-8D4C-1AB783A32230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5664" yWindow="4560" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1130" yWindow="2660" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Дата</t>
   </si>
@@ -57,13 +60,97 @@
     <t>Отцы и дети</t>
   </si>
   <si>
-    <t>стр.55</t>
-  </si>
-  <si>
-    <t>стр.1</t>
-  </si>
-  <si>
-    <t>стр.45</t>
+    <t>Джордж Оруэлл</t>
+  </si>
+  <si>
+    <t>Дж. Р. Р. Толкин</t>
+  </si>
+  <si>
+    <t>Властелин колец</t>
+  </si>
+  <si>
+    <t>Ф. С. Фицджеральд</t>
+  </si>
+  <si>
+    <t>Великий Гэтсби</t>
+  </si>
+  <si>
+    <t>Элвин Брукс Уайт</t>
+  </si>
+  <si>
+    <t>Паутина Шарлотты</t>
+  </si>
+  <si>
+    <t>Рэй Брэдбери</t>
+  </si>
+  <si>
+    <t>451° по Фаренгейту</t>
+  </si>
+  <si>
+    <t>Маргарет Митчелл</t>
+  </si>
+  <si>
+    <t> Унесенные ветром</t>
+  </si>
+  <si>
+    <t>Скотный двор</t>
+  </si>
+  <si>
+    <t>Джером Д. Сэлинджер</t>
+  </si>
+  <si>
+    <t>Над пропастью во ржи</t>
+  </si>
+  <si>
+    <t>Марк Твен</t>
+  </si>
+  <si>
+    <t>Приключения Гекльберри Финна</t>
+  </si>
+  <si>
+    <t>Кэтрин Стокетт</t>
+  </si>
+  <si>
+    <t>Прислуга</t>
+  </si>
+  <si>
+    <t>Стр 12.</t>
+  </si>
+  <si>
+    <t>Стр 24.</t>
+  </si>
+  <si>
+    <t>Стр 123.</t>
+  </si>
+  <si>
+    <t>Стр 234.</t>
+  </si>
+  <si>
+    <t>Стр 124.</t>
+  </si>
+  <si>
+    <t>Стр 179.</t>
+  </si>
+  <si>
+    <t>Стр 104.</t>
+  </si>
+  <si>
+    <t>Стр 54.</t>
+  </si>
+  <si>
+    <t>Стр 20.</t>
+  </si>
+  <si>
+    <t>стр 1.</t>
+  </si>
+  <si>
+    <t>стр 55.</t>
+  </si>
+  <si>
+    <t>стр 45.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -79,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,14 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,39 +482,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>44492</v>
       </c>
       <c r="C2" t="s">
@@ -430,14 +527,14 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>44492</v>
       </c>
       <c r="C3" t="s">
@@ -447,14 +544,14 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>45228</v>
       </c>
       <c r="C4" t="s">
@@ -464,10 +561,181 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1984</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E14" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Informatica generala\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86CDFA9-A1C1-435C-8D4C-1AB783A32230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23506F2D-6D15-48F7-A113-E18EC51E4373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1130" yWindow="2660" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5620" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,20 +195,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,7 +641,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,240 +653,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>44492</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>45228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>45231</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1984</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>45235</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>45252</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>45275</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>45283</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>45302</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>45317</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>45328</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>45338</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>45374</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
